--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H2">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I2">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J2">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N2">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O2">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P2">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q2">
-        <v>420.0706201438185</v>
+        <v>483.12830314308</v>
       </c>
       <c r="R2">
-        <v>420.0706201438185</v>
+        <v>1932.51321257232</v>
       </c>
       <c r="S2">
-        <v>0.009952857525687538</v>
+        <v>0.01020454248436728</v>
       </c>
       <c r="T2">
-        <v>0.009952857525687538</v>
+        <v>0.005523372443036946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H3">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I3">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J3">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N3">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P3">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q3">
-        <v>0.8578901653115675</v>
+        <v>1.074582044678333</v>
       </c>
       <c r="R3">
-        <v>0.8578901653115675</v>
+        <v>6.447492268070001</v>
       </c>
       <c r="S3">
-        <v>2.032624558487635E-05</v>
+        <v>2.269711390642913E-05</v>
       </c>
       <c r="T3">
-        <v>2.032624558487635E-05</v>
+        <v>1.842776592080812E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H4">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I4">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J4">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N4">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O4">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P4">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q4">
-        <v>135.7113959493114</v>
+        <v>172.57187646734</v>
       </c>
       <c r="R4">
-        <v>135.7113959493114</v>
+        <v>1035.43125880404</v>
       </c>
       <c r="S4">
-        <v>0.003215450268893417</v>
+        <v>0.00364502976447733</v>
       </c>
       <c r="T4">
-        <v>0.003215450268893417</v>
+        <v>0.002959396315808251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H5">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I5">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J5">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N5">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O5">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P5">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q5">
-        <v>114.3548413962446</v>
+        <v>132.1743765907425</v>
       </c>
       <c r="R5">
-        <v>114.3548413962446</v>
+        <v>793.046259544455</v>
       </c>
       <c r="S5">
-        <v>0.002709443101256997</v>
+        <v>0.002791761593121871</v>
       </c>
       <c r="T5">
-        <v>0.002709443101256997</v>
+        <v>0.002266628671682339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H6">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I6">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J6">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N6">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O6">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P6">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q6">
-        <v>285.9019486706723</v>
+        <v>330.4635996831576</v>
       </c>
       <c r="R6">
-        <v>285.9019486706723</v>
+        <v>1982.781598098945</v>
       </c>
       <c r="S6">
-        <v>0.006773959484387201</v>
+        <v>0.006979988174083489</v>
       </c>
       <c r="T6">
-        <v>0.006773959484387201</v>
+        <v>0.005667045983568213</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.988169674223</v>
+        <v>2.2625225</v>
       </c>
       <c r="H7">
-        <v>1.988169674223</v>
+        <v>4.525045</v>
       </c>
       <c r="I7">
-        <v>0.0229362734618602</v>
+        <v>0.02393286306832829</v>
       </c>
       <c r="J7">
-        <v>0.0229362734618602</v>
+        <v>0.01659121259875097</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N7">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O7">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P7">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q7">
-        <v>11.15238827622698</v>
+        <v>13.67515320089625</v>
       </c>
       <c r="R7">
-        <v>11.15238827622698</v>
+        <v>54.70061280358501</v>
       </c>
       <c r="S7">
-        <v>0.0002642368360501694</v>
+        <v>0.0002888439383718928</v>
       </c>
       <c r="T7">
-        <v>0.0002642368360501694</v>
+        <v>0.0001563414187344133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J8">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N8">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O8">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P8">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q8">
-        <v>15926.11698260335</v>
+        <v>17430.95176437401</v>
       </c>
       <c r="R8">
-        <v>15926.11698260335</v>
+        <v>104585.7105862441</v>
       </c>
       <c r="S8">
-        <v>0.377342203106266</v>
+        <v>0.3681731884994392</v>
       </c>
       <c r="T8">
-        <v>0.377342203106266</v>
+        <v>0.2989194733724906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J9">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N9">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P9">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q9">
-        <v>32.52514809604927</v>
+        <v>38.77021417663289</v>
       </c>
       <c r="R9">
-        <v>32.52514809604927</v>
+        <v>348.931927589696</v>
       </c>
       <c r="S9">
-        <v>0.0007706279598678789</v>
+        <v>0.000818896957846622</v>
       </c>
       <c r="T9">
-        <v>0.0007706279598678789</v>
+        <v>0.000997292531200516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J10">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N10">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O10">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P10">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q10">
-        <v>5145.219551467701</v>
+        <v>6226.279924028502</v>
       </c>
       <c r="R10">
-        <v>5145.219551467701</v>
+        <v>56036.51931625651</v>
       </c>
       <c r="S10">
-        <v>0.1219072095939665</v>
+        <v>0.1315102791348894</v>
       </c>
       <c r="T10">
-        <v>0.1219072095939665</v>
+        <v>0.1601596121473017</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J11">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N11">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O11">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P11">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q11">
-        <v>4335.529537819413</v>
+        <v>4768.764669448735</v>
       </c>
       <c r="R11">
-        <v>4335.529537819413</v>
+        <v>42918.88202503862</v>
       </c>
       <c r="S11">
-        <v>0.1027229844675952</v>
+        <v>0.1007249241055695</v>
       </c>
       <c r="T11">
-        <v>0.1027229844675952</v>
+        <v>0.1226677099648449</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J12">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N12">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O12">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P12">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q12">
-        <v>10839.38666913787</v>
+        <v>11922.90956353388</v>
       </c>
       <c r="R12">
-        <v>10839.38666913787</v>
+        <v>107306.1860718049</v>
       </c>
       <c r="S12">
-        <v>0.2568207963385549</v>
+        <v>0.2518333875014522</v>
       </c>
       <c r="T12">
-        <v>0.2568207963385549</v>
+        <v>0.3066949437967798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.3773801226547</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
-        <v>75.3773801226547</v>
+        <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8695818197747425</v>
+        <v>0.8634819757265425</v>
       </c>
       <c r="J13">
-        <v>0.8695818197747425</v>
+        <v>0.8979000753211561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N13">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O13">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P13">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q13">
-        <v>422.8199540872334</v>
+        <v>493.3905429768481</v>
       </c>
       <c r="R13">
-        <v>422.8199540872334</v>
+        <v>2960.343257861088</v>
       </c>
       <c r="S13">
-        <v>0.01001799830849205</v>
+        <v>0.01042129952734565</v>
       </c>
       <c r="T13">
-        <v>0.01001799830849205</v>
+        <v>0.008461043508538624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H14">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I14">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J14">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N14">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O14">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P14">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q14">
-        <v>23.40608965611447</v>
+        <v>24.682041067408</v>
       </c>
       <c r="R14">
-        <v>23.40608965611447</v>
+        <v>148.092246404448</v>
       </c>
       <c r="S14">
-        <v>0.0005545674094061115</v>
+        <v>0.0005213292929325049</v>
       </c>
       <c r="T14">
-        <v>0.0005545674094061115</v>
+        <v>0.0004232667738033147</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H15">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I15">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J15">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N15">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P15">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q15">
-        <v>0.04780113905015953</v>
+        <v>0.05489820816644445</v>
       </c>
       <c r="R15">
-        <v>0.04780113905015953</v>
+        <v>0.494083873498</v>
       </c>
       <c r="S15">
-        <v>1.13256653457205E-06</v>
+        <v>1.159549324487025E-06</v>
       </c>
       <c r="T15">
-        <v>1.13256653457205E-06</v>
+        <v>1.412155546297812E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H16">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I16">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J16">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N16">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O16">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P16">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q16">
-        <v>7.56175973425257</v>
+        <v>8.816345708450667</v>
       </c>
       <c r="R16">
-        <v>7.56175973425257</v>
+        <v>79.34711137605601</v>
       </c>
       <c r="S16">
-        <v>0.0001791630113354029</v>
+        <v>0.0001862171471914573</v>
       </c>
       <c r="T16">
-        <v>0.0001791630113354029</v>
+        <v>0.0002267842959923308</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H17">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I17">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J17">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N17">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O17">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P17">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q17">
-        <v>6.37178498561711</v>
+        <v>6.752519713392998</v>
       </c>
       <c r="R17">
-        <v>6.37178498561711</v>
+        <v>60.77267742053699</v>
       </c>
       <c r="S17">
-        <v>0.0001509685874352509</v>
+        <v>0.0001426254140847541</v>
       </c>
       <c r="T17">
-        <v>0.0001509685874352509</v>
+        <v>0.0001736961639229185</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H18">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I18">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J18">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N18">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O18">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P18">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q18">
-        <v>15.93028962880699</v>
+        <v>16.88271228491367</v>
       </c>
       <c r="R18">
-        <v>15.93028962880699</v>
+        <v>151.944410564223</v>
       </c>
       <c r="S18">
-        <v>0.0003774410668476905</v>
+        <v>0.0003565933803545545</v>
       </c>
       <c r="T18">
-        <v>0.0003774410668476905</v>
+        <v>0.0004342767566731521</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.110779653265204</v>
+        <v>0.1155876666666667</v>
       </c>
       <c r="H19">
-        <v>0.110779653265204</v>
+        <v>0.346763</v>
       </c>
       <c r="I19">
-        <v>0.001277995763763863</v>
+        <v>0.001222681232438973</v>
       </c>
       <c r="J19">
-        <v>0.001277995763763863</v>
+        <v>0.001271416892954806</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N19">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O19">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P19">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q19">
-        <v>0.6214045623657257</v>
+        <v>0.6986357261865001</v>
       </c>
       <c r="R19">
-        <v>0.6214045623657257</v>
+        <v>4.191814357119</v>
       </c>
       <c r="S19">
-        <v>1.472312220483505E-05</v>
+        <v>1.475644855121554E-05</v>
       </c>
       <c r="T19">
-        <v>1.472312220483505E-05</v>
+        <v>1.19807470167924E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H20">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I20">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J20">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N20">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O20">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P20">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q20">
-        <v>347.2770126872862</v>
+        <v>409.79300319224</v>
       </c>
       <c r="R20">
-        <v>347.2770126872862</v>
+        <v>2458.75801915344</v>
       </c>
       <c r="S20">
-        <v>0.008228137040480444</v>
+        <v>0.008655568476668669</v>
       </c>
       <c r="T20">
-        <v>0.008228137040480444</v>
+        <v>0.007027448091292151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H21">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I21">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J21">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N21">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P21">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q21">
-        <v>0.7092272573625913</v>
+        <v>0.9114684451322221</v>
       </c>
       <c r="R21">
-        <v>0.7092272573625913</v>
+        <v>8.203216006189999</v>
       </c>
       <c r="S21">
-        <v>1.680393130909103E-05</v>
+        <v>1.925186003594037E-05</v>
       </c>
       <c r="T21">
-        <v>1.680393130909103E-05</v>
+        <v>2.344585120458721E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H22">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I22">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J22">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N22">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O22">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P22">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q22">
-        <v>112.1941071640829</v>
+        <v>146.3767431218533</v>
       </c>
       <c r="R22">
-        <v>112.1941071640829</v>
+        <v>1317.39068809668</v>
       </c>
       <c r="S22">
-        <v>0.002658248185611104</v>
+        <v>0.003091741229384985</v>
       </c>
       <c r="T22">
-        <v>0.002658248185611104</v>
+        <v>0.003765272794001338</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H23">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I23">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J23">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N23">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O23">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P23">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q23">
-        <v>94.53840807248042</v>
+        <v>112.111284674915</v>
       </c>
       <c r="R23">
-        <v>94.53840807248042</v>
+        <v>1009.001562074235</v>
       </c>
       <c r="S23">
-        <v>0.002239926481715297</v>
+        <v>0.002367992849931111</v>
       </c>
       <c r="T23">
-        <v>0.002239926481715297</v>
+        <v>0.002883856827826733</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H24">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I24">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J24">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N24">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O24">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P24">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q24">
-        <v>236.3582928552161</v>
+        <v>280.3016715826183</v>
       </c>
       <c r="R24">
-        <v>236.3582928552161</v>
+        <v>2522.715044243565</v>
       </c>
       <c r="S24">
-        <v>0.005600106984385858</v>
+        <v>0.005920477640195073</v>
       </c>
       <c r="T24">
-        <v>0.005600106984385858</v>
+        <v>0.007210245532273786</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.64364178800039</v>
+        <v>1.919088333333333</v>
       </c>
       <c r="H25">
-        <v>1.64364178800039</v>
+        <v>5.757264999999999</v>
       </c>
       <c r="I25">
-        <v>0.0189616701289094</v>
+        <v>0.02030003162297525</v>
       </c>
       <c r="J25">
-        <v>0.0189616701289094</v>
+        <v>0.02110918401968333</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N25">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O25">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P25">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q25">
-        <v>9.2198023360235</v>
+        <v>11.5993661784075</v>
       </c>
       <c r="R25">
-        <v>9.2198023360235</v>
+        <v>69.596197070445</v>
       </c>
       <c r="S25">
-        <v>0.0002184475054076056</v>
+        <v>0.0002449995667594695</v>
       </c>
       <c r="T25">
-        <v>0.0002184475054076056</v>
+        <v>0.0001989149230847388</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H26">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I26">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J26">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>211.285095829654</v>
+        <v>213.535248</v>
       </c>
       <c r="N26">
-        <v>211.285095829654</v>
+        <v>427.070496</v>
       </c>
       <c r="O26">
-        <v>0.4339352485589145</v>
+        <v>0.4263820193694889</v>
       </c>
       <c r="P26">
-        <v>0.4339352485589145</v>
+        <v>0.3329095091851671</v>
       </c>
       <c r="Q26">
-        <v>1597.814147369745</v>
+        <v>1838.2608894576</v>
       </c>
       <c r="R26">
-        <v>1597.814147369745</v>
+        <v>7353.0435578304</v>
       </c>
       <c r="S26">
-        <v>0.03785748347707434</v>
+        <v>0.03882739061608121</v>
       </c>
       <c r="T26">
-        <v>0.03785748347707434</v>
+        <v>0.021015948504544</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H27">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I27">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J27">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.431497460420143</v>
+        <v>0.4749486666666667</v>
       </c>
       <c r="N27">
-        <v>0.431497460420143</v>
+        <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0008862052337611007</v>
+        <v>0.0009483660121076572</v>
       </c>
       <c r="P27">
-        <v>0.0008862052337611007</v>
+        <v>0.001110694339616588</v>
       </c>
       <c r="Q27">
-        <v>3.26313952295662</v>
+        <v>4.088690586733334</v>
       </c>
       <c r="R27">
-        <v>3.26313952295662</v>
+        <v>24.5321435204</v>
       </c>
       <c r="S27">
-        <v>7.731453046468228E-05</v>
+        <v>8.636053099417861E-05</v>
       </c>
       <c r="T27">
-        <v>7.731453046468228E-05</v>
+        <v>7.011603574437861E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H28">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I28">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J28">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.2594638218436</v>
+        <v>76.27410400000001</v>
       </c>
       <c r="N28">
-        <v>68.2594638218436</v>
+        <v>228.822312</v>
       </c>
       <c r="O28">
-        <v>0.1401906144099764</v>
+        <v>0.1523022863612588</v>
       </c>
       <c r="P28">
-        <v>0.1401906144099764</v>
+        <v>0.1783713094021254</v>
       </c>
       <c r="Q28">
-        <v>516.2027002337544</v>
+        <v>656.6208791048001</v>
       </c>
       <c r="R28">
-        <v>516.2027002337544</v>
+        <v>3939.7252746288</v>
       </c>
       <c r="S28">
-        <v>0.01223054335016996</v>
+        <v>0.01386901908531561</v>
       </c>
       <c r="T28">
-        <v>0.01223054335016996</v>
+        <v>0.01126024384902183</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H29">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I29">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J29">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.5176469487876</v>
+        <v>58.41903299999999</v>
       </c>
       <c r="N29">
-        <v>57.5176469487876</v>
+        <v>175.257099</v>
       </c>
       <c r="O29">
-        <v>0.1181291767279641</v>
+        <v>0.1166497123704505</v>
       </c>
       <c r="P29">
-        <v>0.1181291767279641</v>
+        <v>0.1366162152519809</v>
       </c>
       <c r="Q29">
-        <v>434.9692043223263</v>
+        <v>502.9119293871</v>
       </c>
       <c r="R29">
-        <v>434.9692043223263</v>
+        <v>3017.4715763226</v>
       </c>
       <c r="S29">
-        <v>0.01030585408996138</v>
+        <v>0.01062240840774324</v>
       </c>
       <c r="T29">
-        <v>0.01030585408996138</v>
+        <v>0.008624323623703965</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H30">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I30">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J30">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>143.801584129084</v>
+        <v>146.059807</v>
       </c>
       <c r="N30">
-        <v>143.801584129084</v>
+        <v>438.179421</v>
       </c>
       <c r="O30">
-        <v>0.2953382769721221</v>
+        <v>0.291648690512106</v>
       </c>
       <c r="P30">
-        <v>0.2953382769721221</v>
+        <v>0.3415691258151223</v>
       </c>
       <c r="Q30">
-        <v>1087.479477117869</v>
+        <v>1257.3850605209</v>
       </c>
       <c r="R30">
-        <v>1087.479477117869</v>
+        <v>7544.310363125401</v>
       </c>
       <c r="S30">
-        <v>0.0257659730979465</v>
+        <v>0.02655824381602063</v>
       </c>
       <c r="T30">
-        <v>0.0257659730979465</v>
+        <v>0.02156261374582736</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.56236089959683</v>
+        <v>8.608700000000001</v>
       </c>
       <c r="H31">
-        <v>7.56236089959683</v>
+        <v>17.2174</v>
       </c>
       <c r="I31">
-        <v>0.08724224087072407</v>
+        <v>0.09106244834971487</v>
       </c>
       <c r="J31">
-        <v>0.08724224087072407</v>
+        <v>0.06312811116745468</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.60937450199539</v>
+        <v>6.0442065</v>
       </c>
       <c r="N31">
-        <v>5.60937450199539</v>
+        <v>12.088413</v>
       </c>
       <c r="O31">
-        <v>0.01152047809726188</v>
+        <v>0.01206892537458823</v>
       </c>
       <c r="P31">
-        <v>0.01152047809726188</v>
+        <v>0.009423146005987719</v>
       </c>
       <c r="Q31">
-        <v>42.42011440508538</v>
+        <v>52.03276049655001</v>
       </c>
       <c r="R31">
-        <v>42.42011440508538</v>
+        <v>208.1310419862</v>
       </c>
       <c r="S31">
-        <v>0.001005072325107222</v>
+        <v>0.001099025893560004</v>
       </c>
       <c r="T31">
-        <v>0.001005072325107222</v>
+        <v>0.0005948654086131493</v>
       </c>
     </row>
   </sheetData>
